--- a/return_final_quarterly.xlsx
+++ b/return_final_quarterly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongy\Documents\GitHub\DQN_Stock_Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F2DE7-FFC2-43C9-95C1-26936527C1F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11EFD43-AFF7-4526-A204-F075A6C518B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -399,3476 +400,3476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="B695" sqref="B695"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2">
         <v>-1.3819393265286396E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3">
         <v>3.7266720451689522E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2">
       <c r="B4">
         <v>-1.3559505798593163E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5">
         <v>-1.5333945765256984E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2">
       <c r="B6">
         <v>-9.8097479166493924E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7">
         <v>4.4960124206635029E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8">
         <v>5.2079035669881325E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2">
       <c r="B9">
         <v>-1.9998252578075845E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2">
       <c r="B10">
         <v>8.0958728888820934E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11">
         <v>-1.3556525410128726E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2">
       <c r="B12">
         <v>8.5353558758074939E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2">
       <c r="B13">
         <v>-9.2536886681408251E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14">
         <v>1.0951355436959942E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2">
       <c r="B15">
         <v>-5.1455744325099115E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2">
       <c r="B16">
         <v>-3.8427960506006169E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17">
         <v>1.6782609020663027E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18">
         <v>-7.8979622770532286E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19">
         <v>2.9743769854233687E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20">
         <v>1.922093682188817E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21">
         <v>4.9105811026355301E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22">
         <v>-1.0593859971997896E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23">
         <v>2.9761985650638865E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24">
         <v>1.1068305090343141E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25">
         <v>-6.2783050518291517E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2">
       <c r="B26">
         <v>-4.9559002887461278E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27">
         <v>1.7260731493493329E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28">
         <v>-4.3031583401500094E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29">
         <v>-1.4270939584343709E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30">
         <v>1.5451624319376252E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31">
         <v>8.0916510769766629E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2">
       <c r="B32">
         <v>6.8407964041108651E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33">
         <v>1.8845309004099798E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34">
         <v>1.3173544334821854E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35">
         <v>1.3941591817562233E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36">
         <v>-4.8962107856263806E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37">
         <v>4.1080320066111753E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38">
         <v>1.5912567915673189E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39">
         <v>-1.0149294743219971E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40">
         <v>-6.0074824777496209E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41">
         <v>1.5065282098225819E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42">
         <v>2.9533423597735619E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43">
         <v>-7.3039414121835785E-5</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44">
         <v>2.4277447133289774E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45">
         <v>4.0389795491484002E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46">
         <v>-1.4791205178569193E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47">
         <v>1.8846907205944295E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48">
         <v>-1.6579682746183046E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49">
         <v>8.7659985675034267E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50">
         <v>-1.9116916474700235E-5</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51">
         <v>-1.0441107500838281E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52">
         <v>2.8188653403010905E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53">
         <v>5.8957315413806655E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54">
         <v>3.7572939899147605E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55">
         <v>4.3029331088022199E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56">
         <v>-1.0081093940744357E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57">
         <v>-1.386428632217541E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58">
         <v>9.1535743776384329E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59">
         <v>-5.8732485464816871E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60">
         <v>5.6294671876502668E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61">
         <v>2.9330521279940873E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62">
         <v>-2.2132244320406595E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63">
         <v>8.0842242853317783E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64">
         <v>2.7218113997614693E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65">
         <v>-3.2661209723386137E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66">
         <v>8.5352906131892017E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67">
         <v>-9.7400400988244297E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68">
         <v>1.8246209893427513E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69">
         <v>-5.6915410314648737E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70">
         <v>7.1013578053765241E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71">
         <v>2.6796421146321678E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72">
         <v>1.1426680524237133E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73">
         <v>1.8618488482521374E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74">
         <v>6.3610627077457134E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75">
         <v>7.1435276236089598E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76">
         <v>-4.9667178292836086E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77">
         <v>-8.4794899599833808E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78">
         <v>4.3275192778729548E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79">
         <v>2.992376986066355E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80">
         <v>-2.8178555533302325E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81">
         <v>4.738541079540531E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82">
         <v>-5.6458043375446996E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83">
         <v>-6.6875856627570751E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84">
         <v>7.2349893047042339E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85">
         <v>-3.1426358674183637E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86">
         <v>-1.0118695319530312E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87">
         <v>-3.6579271479049262E-4</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88">
         <v>5.9708453581290791E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89">
         <v>1.951630081504062E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90">
         <v>8.1548973821297024E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91">
         <v>-1.0818258568507589E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92">
         <v>3.1528137011284712E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93">
         <v>-1.0405206811321415E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94">
         <v>7.8408753249494794E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95">
         <v>-1.1291570841596328E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96">
         <v>-5.4166572756839879E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97">
         <v>6.3550942663961026E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98">
         <v>8.4677545672833909E-4</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99">
         <v>-1.4802476564637912E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100">
         <v>1.0563323389946262E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101">
         <v>5.4638434180257177E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102">
         <v>-2.7238221645014312E-5</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103">
         <v>1.7543115254280716E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104">
         <v>-2.6965044614480453E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105">
         <v>1.575600545317687E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106">
         <v>2.4262458892633215E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107">
         <v>-8.8345520369353925E-5</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108">
         <v>7.3014454698407567E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109">
         <v>6.826415919152707E-4</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110">
         <v>5.4581349743343501E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111">
         <v>1.3951258660229067E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112">
         <v>-3.8092766885460595E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113">
         <v>-7.2087715797190463E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114">
         <v>-2.2994061957479495E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115">
         <v>-2.5004955327685542E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116">
         <v>6.0237759052774635E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117">
         <v>-5.0993179933037187E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118">
         <v>6.7335926269193351E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119">
         <v>8.8003395848494908E-4</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120">
         <v>-4.0374534700617177E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121">
         <v>9.4484938537382646E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122">
         <v>-2.6406303683390725E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123">
         <v>-1.2010945834943311E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124">
         <v>1.4804319539616367E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125">
         <v>1.4430438955896784E-2</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126">
         <v>1.4543647018475785E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127">
         <v>2.9428211606759161E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128">
         <v>1.6923313057252694E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129">
         <v>1.6796134856824289E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130">
         <v>-4.6476828162858317E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131">
         <v>9.7785390416454277E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132">
         <v>2.2114763708351412E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133">
         <v>2.0884409302475405E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134">
         <v>2.5414685167719224E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135">
         <v>4.6366560833168736E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136">
         <v>5.8979556137914104E-4</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137">
         <v>9.1580222416958281E-4</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138">
         <v>4.8248571599788185E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139">
         <v>-6.4234945094438346E-4</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140">
         <v>-1.9016718065672409E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141">
         <v>4.6041885909463565E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142">
         <v>-4.7703841051393902E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143">
         <v>-8.3551849836221593E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144">
         <v>-2.4180842418816718E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145">
         <v>-7.7055495959414081E-5</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146">
         <v>8.5399365106607415E-4</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147">
         <v>5.8720477923342629E-4</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148">
         <v>-5.4880302922703517E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149">
         <v>-3.2614123584628566E-3</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150">
         <v>-4.6728698188020575E-4</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151">
         <v>3.0915182847233019E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152">
         <v>-2.593771513325684E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153">
         <v>7.499295921188136E-4</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154">
         <v>-5.9870012555897725E-4</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155">
         <v>2.8965877126653481E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156">
         <v>-8.3880125245468749E-4</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157">
         <v>-2.8044784018983792E-4</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158">
         <v>-7.7785651491637806E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159">
         <v>4.166687437728093E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160">
         <v>1.9558046836987458E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161">
         <v>-4.9510961213906114E-3</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162">
         <v>-2.196575688280235E-3</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163">
         <v>1.8414628243178352E-3</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164">
         <v>-3.9265303463683985E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165">
         <v>-1.8457209769769196E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166">
         <v>-4.483799134829887E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167">
         <v>6.6141616460940293E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168">
         <v>-4.7972337182816153E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169">
         <v>-1.0085783812781221E-3</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170">
         <v>3.1557155769533639E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171">
         <v>3.5510002392642867E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172">
         <v>2.1179730852265754E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173">
         <v>-3.7750272623918906E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174">
         <v>-2.2272356304885456E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175">
         <v>-2.0570213937929804E-2</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176">
         <v>1.3351352307598803E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177">
         <v>-1.3116279181750821E-2</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178">
         <v>1.6814990399168644E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179">
         <v>9.8342604065506465E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180">
         <v>-4.566396203925622E-4</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181">
         <v>-3.5837390330052217E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182">
         <v>2.3958805306461758E-4</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183">
         <v>5.0931499840852212E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184">
         <v>6.4790006498467757E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185">
         <v>-4.3566982077951691E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186">
         <v>-8.1319613728197283E-3</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187">
         <v>6.8151925585734022E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188">
         <v>3.145878200249308E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189">
         <v>-9.2475236496570266E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190">
         <v>9.1826314267287306E-3</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191">
         <v>-3.8532958748781257E-3</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192">
         <v>-4.4724014908027656E-3</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193">
         <v>3.9506841654455595E-3</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194">
         <v>7.3146715039849885E-4</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195">
         <v>1.7515636359024758E-5</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196">
         <v>5.4732966099122881E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197">
         <v>-9.1301521201369532E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198">
         <v>1.0036860825099337E-3</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199">
         <v>-2.1418897504670931E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200">
         <v>-5.2867062593708815E-4</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201">
         <v>-3.1500549779128954E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202">
         <v>5.9438598256176499E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203">
         <v>8.0922310385461737E-4</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204">
         <v>-7.0903105181081361E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205">
         <v>6.7873707958574674E-4</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206">
         <v>2.4249981593805342E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207">
         <v>6.7393025503457863E-4</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208">
         <v>-4.0489204511068441E-4</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209">
         <v>6.155379703167011E-4</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210">
         <v>-4.0494655723787628E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211">
         <v>-2.2704542703812459E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212">
         <v>-5.3029478553018299E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213">
         <v>-2.912289598475492E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214">
         <v>-7.976557861671536E-4</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215">
         <v>-5.3047313393206879E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216">
         <v>1.8581361995122642E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217">
         <v>3.725651133810284E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218">
         <v>9.0902897232687883E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219">
         <v>-5.2355786584612918E-4</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220">
         <v>1.6274497304036993E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221">
         <v>-1.6613291500334375E-4</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222">
         <v>3.9278672386247578E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223">
         <v>1.5386239360347161E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224">
         <v>7.9409841831464152E-4</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225">
         <v>-4.6737805697715362E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226">
         <v>4.4788934418847426E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227">
         <v>9.2425560173011519E-4</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228">
         <v>1.9054625973451357E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229">
         <v>4.9198599030692916E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230">
         <v>-2.4959236674672578E-3</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231">
         <v>1.7287516150956664E-5</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232">
         <v>-1.6514367865947707E-3</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233">
         <v>1.8128925143580689E-3</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234">
         <v>-4.9051257949524207E-4</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235">
         <v>4.2604878144404876E-3</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236">
         <v>1.6342597116037623E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237">
         <v>1.1506829144571538E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238">
         <v>1.9672998200631537E-3</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239">
         <v>9.3243316962005017E-3</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240">
         <v>6.9393207378903744E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241">
         <v>4.3820198913801234E-3</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242">
         <v>-6.9784349613497788E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243">
         <v>2.4972812951180924E-3</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244">
         <v>2.5792965430375073E-3</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245">
         <v>2.6295240978097575E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246">
         <v>2.4255598195582467E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247">
         <v>-2.2105566595185454E-4</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248">
         <v>-1.5731234053909314E-3</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249">
         <v>-2.8004556157115712E-4</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250">
         <v>-5.7162540296154768E-4</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251">
         <v>-5.6476276736233035E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252">
         <v>3.5601039854095466E-4</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253">
         <v>-3.3162869986626924E-3</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254">
         <v>2.1732460426849083E-3</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255">
         <v>3.5804666385363349E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256">
         <v>-2.2337082969247949E-4</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257">
         <v>1.5735494758011327E-3</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258">
         <v>-1.4578156146157701E-3</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259">
         <v>-2.7800516773958607E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260">
         <v>4.0518699344817589E-3</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261">
         <v>-2.3377545942961189E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262">
         <v>-1.7760003378404217E-3</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263">
         <v>4.1467977553235674E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264">
         <v>4.9509168180681936E-4</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265">
         <v>-4.7832734407557333E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266">
         <v>3.9965189605574635E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267">
         <v>-3.1945818953214729E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268">
         <v>6.4933917146516281E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269">
         <v>4.1379780004521917E-3</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270">
         <v>5.3765669665288205E-4</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271">
         <v>-2.3595014652289399E-4</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272">
         <v>-2.0598119364319462E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273">
         <v>-1.3538989612955569E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274">
         <v>4.4562278577225745E-3</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275">
         <v>8.20164985678005E-4</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276">
         <v>4.076507989362774E-3</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277">
         <v>-1.639452437020079E-3</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278">
         <v>2.4843354181157688E-4</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279">
         <v>1.9483066515175399E-3</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280">
         <v>5.4722811130010953E-3</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281">
         <v>4.209573205060717E-3</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282">
         <v>3.7991926374376429E-3</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283">
         <v>3.1419043915949635E-3</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284">
         <v>4.2381494521460655E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285">
         <v>1.5779282886446869E-3</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286">
         <v>1.6265355458242278E-4</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287">
         <v>5.7670387006714379E-3</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288">
         <v>4.4483891037376423E-3</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289">
         <v>2.6381638513066161E-3</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290">
         <v>2.7410139057405742E-3</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291">
         <v>-1.8423932619774832E-3</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292">
         <v>-1.1039588611625724E-3</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293">
         <v>1.3098319912975599E-2</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294">
         <v>-5.4747582179864107E-3</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295">
         <v>2.1218208269916679E-4</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296">
         <v>-3.9656985688125562E-3</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297">
         <v>-8.8893231232546567E-4</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298">
         <v>-3.1691648471940509E-3</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299">
         <v>3.0619730393107816E-3</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300">
         <v>2.8942800678457992E-3</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301">
         <v>-1.2395817356667253E-3</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302">
         <v>1.0819761052139221E-3</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303">
         <v>5.2324455477071761E-3</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304">
         <v>-1.2570309350549214E-3</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305">
         <v>-1.5830690134543315E-3</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306">
         <v>4.2553422601949076E-4</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307">
         <v>-6.5086887959145889E-3</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308">
         <v>9.0567140082358747E-4</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309">
         <v>-2.6502518375439458E-3</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310">
         <v>-1.0179488980618027E-3</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311">
         <v>-3.5807719760549717E-4</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312">
         <v>6.677254871825973E-3</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313">
         <v>-3.4212164405230043E-3</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314">
         <v>3.8907862632106003E-3</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315">
         <v>-1.4981981388148969E-3</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316">
         <v>-5.4330071321148231E-4</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317">
         <v>1.7259362778090136E-3</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318">
         <v>-3.487259319285901E-4</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319">
         <v>-4.167988407694003E-4</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320">
         <v>9.2080797017215707E-4</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321">
         <v>-2.6881996375031068E-5</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322">
         <v>1.5717028739475629E-3</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323">
         <v>-2.7433855090116469E-4</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324">
         <v>-4.6289410750195194E-3</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325">
         <v>6.5320357183669287E-3</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326">
         <v>7.1981904133412884E-4</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327">
         <v>-3.0427050350330669E-3</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328">
         <v>5.8845721243798686E-3</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329">
         <v>9.5799633682168395E-4</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330">
         <v>6.8768047916069729E-3</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331">
         <v>9.850521659229363E-3</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332">
         <v>1.2365658327027497E-3</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333">
         <v>2.2443229858804602E-3</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334">
         <v>-2.3414015070910964E-3</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335">
         <v>5.300552718608487E-4</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336">
         <v>1.3066924590780062E-3</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337">
         <v>-1.7813254635212647E-4</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338">
         <v>-6.3792836912271922E-4</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339">
         <v>4.6463776578063052E-3</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340">
         <v>1.7770594827723994E-3</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341">
         <v>-7.8280087644097562E-4</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342">
         <v>-1.7826100491415819E-3</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343">
         <v>-2.315982018590118E-3</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344">
         <v>-1.2685932738915396E-3</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345">
         <v>2.5716650839791738E-4</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346">
         <v>-2.9878478811788136E-4</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347">
         <v>-1.3273918678833114E-2</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348">
         <v>4.5242487468395579E-3</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349">
         <v>4.0862413214259171E-3</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350">
         <v>3.5175558155400698E-3</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351">
         <v>7.7961824126817399E-4</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352">
         <v>2.2434808294192858E-3</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353">
         <v>4.0833892500967738E-3</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354">
         <v>6.9764020750412838E-4</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355">
         <v>7.8873930056543528E-4</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356">
         <v>1.2524458590293447E-3</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357">
         <v>5.0093460227292426E-3</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358">
         <v>1.0707954258357415E-3</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359">
         <v>-5.5605845142759507E-4</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360">
         <v>-4.9884653576738524E-3</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361">
         <v>-3.9397037297757536E-4</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362">
         <v>-7.0107292267104502E-3</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363">
         <v>5.785442092011474E-3</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364">
         <v>-2.1844187042242949E-4</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365">
         <v>4.9943948673662319E-4</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366">
         <v>3.8449289377245873E-3</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367">
         <v>-1.7813892587581197E-3</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368">
         <v>-3.9166361273204713E-3</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369">
         <v>4.7229210542307299E-3</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370">
         <v>-1.2231543877518046E-3</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371">
         <v>1.5581424063823134E-3</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372">
         <v>-1.9822550564603829E-3</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373">
         <v>2.6707526123138052E-4</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374">
         <v>1.9200446723346809E-3</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375">
         <v>-4.5027208528206943E-3</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376">
         <v>4.3736834422208621E-3</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377">
         <v>-1.1343766632789042E-2</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378">
         <v>1.4941954522000929E-3</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379">
         <v>4.1943031962771039E-3</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380">
         <v>-1.4552459289837493E-3</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381">
         <v>-8.0069483016157669E-3</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382">
         <v>2.8592457636658834E-3</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383">
         <v>-3.7757625603409861E-3</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384">
         <v>-9.9662745711569158E-4</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385">
         <v>4.5945360170315201E-3</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386">
         <v>-4.310340806731896E-4</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387">
         <v>5.4709221550717788E-3</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388">
         <v>-3.1570003164881397E-4</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389">
         <v>1.6691238545843289E-3</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390">
         <v>4.615875407179647E-3</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391">
         <v>2.2854991539707919E-4</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392">
         <v>6.1391579124385584E-4</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393">
         <v>-2.5712972213762157E-3</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394">
         <v>1.8433763092492164E-3</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395">
         <v>-8.8418394106203003E-4</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396">
         <v>6.289698204840927E-3</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397">
         <v>1.118651846003393E-3</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398">
         <v>3.612077970637167E-3</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399">
         <v>3.2712898531362536E-3</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2">
       <c r="B400">
         <v>3.1290777119987105E-3</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2">
       <c r="B401">
         <v>2.2686527989614312E-3</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2">
       <c r="B402">
         <v>-2.5661648877123766E-4</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2">
       <c r="B403">
         <v>-1.2165613235452857E-3</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2">
       <c r="B404">
         <v>-1.6682301816802929E-3</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2">
       <c r="B405">
         <v>1.491228538508273E-3</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2">
       <c r="B406">
         <v>-6.8200478065476048E-3</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2">
       <c r="B407">
         <v>-1.6534761701280894E-3</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2">
       <c r="B408">
         <v>4.8043433978700216E-3</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2">
       <c r="B409">
         <v>1.1294275514067964E-3</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2">
       <c r="B410">
         <v>2.137618835752063E-3</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2">
       <c r="B411">
         <v>-1.0706322367606913E-2</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2">
       <c r="B412">
         <v>-3.0413808609600903E-3</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2">
       <c r="B413">
         <v>1.2930414437181533E-3</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2">
       <c r="B414">
         <v>5.6865065087315014E-3</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2">
       <c r="B415">
         <v>-1.7704048050385958E-3</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2">
       <c r="B416">
         <v>-4.2264540985454298E-3</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2">
       <c r="B417">
         <v>1.5248741102583665E-3</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2">
       <c r="B418">
         <v>-2.9936970771894129E-3</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2">
       <c r="B419">
         <v>4.713582806131841E-3</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2">
       <c r="B420">
         <v>-2.6839047756347322E-3</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2">
       <c r="B421">
         <v>2.854749011015205E-3</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2">
       <c r="B422">
         <v>3.5224000677145159E-4</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2">
       <c r="B423">
         <v>-1.0303839261581141E-2</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2">
       <c r="B424">
         <v>2.4630677319494396E-3</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2">
       <c r="B425">
         <v>2.0032286633640132E-3</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2">
       <c r="B426">
         <v>-7.674909063083475E-4</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2">
       <c r="B427">
         <v>1.218527621258775E-2</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2">
       <c r="B428">
         <v>-1.7754009021270028E-3</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2">
       <c r="B429">
         <v>2.619098014608837E-3</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2">
       <c r="B430">
         <v>1.5056937570201868E-3</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2">
       <c r="B431">
         <v>1.0994281721220642E-3</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2">
       <c r="B432">
         <v>1.3477635758391161E-3</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2">
       <c r="B433">
         <v>1.4509270531650582E-3</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2">
       <c r="B434">
         <v>3.1824040287956035E-5</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2">
       <c r="B435">
         <v>-4.3752353219874947E-3</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2">
       <c r="B436">
         <v>5.3734197759222288E-4</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2">
       <c r="B437">
         <v>-1.825581674902627E-3</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2">
       <c r="B438">
         <v>-1.5655426597576216E-3</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2">
       <c r="B439">
         <v>-1.9305806337774644E-3</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2">
       <c r="B440">
         <v>1.56531415069594E-3</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2">
       <c r="B441">
         <v>1.8146864299500783E-5</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2">
       <c r="B442">
         <v>4.6665234736434115E-3</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2">
       <c r="B443">
         <v>4.148054770734772E-3</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2">
       <c r="B444">
         <v>1.1076145335789146E-3</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2">
       <c r="B445">
         <v>2.2579934319344078E-3</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2">
       <c r="B446">
         <v>-3.4042369599991042E-3</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2">
       <c r="B447">
         <v>-6.75577177533082E-4</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2">
       <c r="B448">
         <v>2.8568628363765522E-3</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2">
       <c r="B449">
         <v>1.9693923819692127E-3</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2">
       <c r="B450">
         <v>-2.872984888676385E-5</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2">
       <c r="B451">
         <v>8.3819333543635999E-4</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2">
       <c r="B452">
         <v>1.0526251758459649E-3</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2">
       <c r="B453">
         <v>4.5609854249268073E-3</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2">
       <c r="B454">
         <v>5.8000783941723148E-3</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2">
       <c r="B455">
         <v>-6.9484580097780061E-4</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2">
       <c r="B456">
         <v>2.7878298033891784E-3</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2">
       <c r="B457">
         <v>-3.1049450191257314E-3</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2">
       <c r="B458">
         <v>2.2688770133110509E-3</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2">
       <c r="B459">
         <v>-7.8773060552644728E-4</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2">
       <c r="B460">
         <v>3.114689454968468E-4</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2">
       <c r="B461">
         <v>-5.4744200774821403E-3</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2">
       <c r="B462">
         <v>-1.9874453340585339E-3</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2">
       <c r="B463">
         <v>1.6006215836771196E-3</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2">
       <c r="B464">
         <v>3.3869714032705085E-3</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2">
       <c r="B465">
         <v>7.7897522615148979E-4</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2">
       <c r="B466">
         <v>9.4536155219924231E-4</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2">
       <c r="B467">
         <v>8.83825109514647E-4</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2">
       <c r="B468">
         <v>5.608965513091293E-3</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2">
       <c r="B469">
         <v>4.332403142632054E-4</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2">
       <c r="B470">
         <v>-2.4378157535880256E-3</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2">
       <c r="B471">
         <v>1.3364269454342345E-3</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2">
       <c r="B472">
         <v>2.6439385102165125E-3</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2">
       <c r="B473">
         <v>3.1353082212625958E-3</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2">
       <c r="B474">
         <v>-8.2889730893483445E-3</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2">
       <c r="B475">
         <v>4.6537745578235064E-3</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2">
       <c r="B476">
         <v>-6.7736849958444827E-3</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2">
       <c r="B477">
         <v>9.8869600722207305E-4</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2">
       <c r="B478">
         <v>6.8004907286422916E-3</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2">
       <c r="B479">
         <v>-9.2588595913794158E-4</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2">
       <c r="B480">
         <v>7.2259918663078525E-4</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2">
       <c r="B481">
         <v>6.0436283765399662E-5</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2">
       <c r="B482">
         <v>1.0194912222565288E-2</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2">
       <c r="B483">
         <v>1.4671018817095465E-3</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2">
       <c r="B484">
         <v>1.1614713986976777E-2</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2">
       <c r="B485">
         <v>1.2992674202507652E-4</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2">
       <c r="B486">
         <v>5.0286962554342077E-3</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2">
       <c r="B487">
         <v>-4.4917953649144257E-3</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2">
       <c r="B488">
         <v>-2.719499463005559E-3</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2">
       <c r="B489">
         <v>-2.3661564068286819E-5</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2">
       <c r="B490">
         <v>3.4163998734326132E-3</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2">
       <c r="B491">
         <v>6.7237645762823735E-3</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2">
       <c r="B492">
         <v>1.6983544507172767E-3</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2">
       <c r="B493">
         <v>7.4383382519416447E-3</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2">
       <c r="B494">
         <v>9.2432672588359482E-4</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2">
       <c r="B495">
         <v>7.5074893231183706E-3</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2">
       <c r="B496">
         <v>6.7999372525719658E-4</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2">
       <c r="B497">
         <v>-1.4096375140629867E-3</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2">
       <c r="B498">
         <v>-3.634524132864427E-3</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2">
       <c r="B499">
         <v>2.8705362824196158E-3</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2">
       <c r="B500">
         <v>-3.3320414847240829E-3</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2">
       <c r="B501">
         <v>1.4438423939342237E-3</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2">
       <c r="B502">
         <v>-3.9215772867893817E-4</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2">
       <c r="B503">
         <v>3.2485724731842682E-4</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2">
       <c r="B504">
         <v>-3.3638680670458714E-3</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2">
       <c r="B505">
         <v>4.8782657166110089E-3</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2">
       <c r="B506">
         <v>5.2438027715783009E-3</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2">
       <c r="B507">
         <v>4.9090033067992495E-3</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2">
       <c r="B508">
         <v>4.9148242756553526E-3</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2">
       <c r="B509">
         <v>1.4428726198378002E-3</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2">
       <c r="B510">
         <v>8.5748498968449315E-4</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2">
       <c r="B511">
         <v>-1.3943178912205817E-3</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2">
       <c r="B512">
         <v>6.4994481416287414E-3</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2">
       <c r="B513">
         <v>6.8284405238198589E-3</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2">
       <c r="B514">
         <v>-2.7602383190118364E-3</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2">
       <c r="B515">
         <v>1.1154560618320344E-2</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2">
       <c r="B516">
         <v>-2.7088792888970451E-3</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2">
       <c r="B517">
         <v>4.3944987692606527E-3</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2">
       <c r="B518">
         <v>4.5069816417189681E-3</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2">
       <c r="B519">
         <v>-1.2323332178938255E-3</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2">
       <c r="B520">
         <v>1.6162339141569627E-3</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2">
       <c r="B521">
         <v>2.0117018380903322E-3</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2">
       <c r="B522">
         <v>8.8821546246510424E-3</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2">
       <c r="B523">
         <v>-9.6592169569933925E-3</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2">
       <c r="B524">
         <v>-1.1771274847233551E-2</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2">
       <c r="B525">
         <v>7.487221515041166E-4</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2">
       <c r="B526">
         <v>1.1947224925676211E-3</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2">
       <c r="B527">
         <v>-2.310791568010517E-2</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2">
       <c r="B528">
         <v>-4.2384335077723143E-2</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2">
       <c r="B529">
         <v>1.6084799244215089E-2</v>
       </c>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2">
       <c r="B530">
         <v>-3.283261199974543E-3</v>
       </c>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2">
       <c r="B531">
         <v>-3.9050773591058352E-2</v>
       </c>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2">
       <c r="B532">
         <v>1.6446976519695997E-2</v>
       </c>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2">
       <c r="B533">
         <v>1.5420538061217187E-2</v>
       </c>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2">
       <c r="B534">
         <v>5.0329482402106931E-4</v>
       </c>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2">
       <c r="B535">
         <v>1.0413861339188805E-2</v>
       </c>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2">
       <c r="B536">
         <v>1.0388648174280347E-2</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2">
       <c r="B537">
         <v>1.5138756217381237E-3</v>
       </c>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2">
       <c r="B538">
         <v>-1.2122120042557609E-2</v>
       </c>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2">
       <c r="B539">
         <v>-6.6691267551005741E-3</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2">
       <c r="B540">
         <v>2.5368535109355434E-3</v>
       </c>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2">
       <c r="B541">
         <v>1.4322509450940685E-2</v>
       </c>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2">
       <c r="B542">
         <v>1.4197299506979904E-2</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2">
       <c r="B543">
         <v>-1.3064851650355664E-2</v>
       </c>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2">
       <c r="B544">
         <v>-1.4417818772143928E-2</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2">
       <c r="B545">
         <v>-9.4823451347526774E-3</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2">
       <c r="B546">
         <v>-3.7870640190453903E-4</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2">
       <c r="B547">
         <v>8.776220634928153E-3</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2">
       <c r="B548">
         <v>-4.3373218789381985E-4</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2">
       <c r="B549">
         <v>-3.4248645182749387E-3</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2">
       <c r="B550">
         <v>7.5804885648606494E-3</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2">
       <c r="B551">
         <v>1.2845366976048538E-2</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2">
       <c r="B552">
         <v>-1.559280421508339E-3</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2">
       <c r="B553">
         <v>-2.5680510769780199E-3</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2">
       <c r="B554">
         <v>-8.4867637673431435E-3</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2">
       <c r="B555">
         <v>4.6223946684277187E-3</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2">
       <c r="B556">
         <v>2.1086962074961051E-3</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2">
       <c r="B557">
         <v>-1.306360349620167E-2</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2">
       <c r="B558">
         <v>4.2503167987115284E-4</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2">
       <c r="B559">
         <v>-3.8276072140799372E-3</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2">
       <c r="B560">
         <v>-1.6634150496366608E-2</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2">
       <c r="B561">
         <v>-1.4617202306999073E-2</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2">
       <c r="B562">
         <v>2.0915579826910391E-2</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2">
       <c r="B563">
         <v>-3.7828712568204813E-3</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2">
       <c r="B564">
         <v>5.3863221730962984E-3</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2">
       <c r="B565">
         <v>3.2815627194001432E-3</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2">
       <c r="B566">
         <v>-1.9098757423285484E-2</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2">
       <c r="B567">
         <v>1.5381423153108018E-2</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2">
       <c r="B568">
         <v>1.3231912033625674E-2</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2">
       <c r="B569">
         <v>5.6933270020474739E-3</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2">
       <c r="B570">
         <v>-1.698971335080569E-2</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2">
       <c r="B571">
         <v>2.7491814727942506E-3</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2">
       <c r="B572">
         <v>1.1409976392910436E-2</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2">
       <c r="B573">
         <v>-2.6636174619697373E-3</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2">
       <c r="B574">
         <v>2.0359018342472235E-3</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2">
       <c r="B575">
         <v>1.2433958924418936E-3</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2">
       <c r="B576">
         <v>8.4362261441344021E-3</v>
       </c>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2">
       <c r="B577">
         <v>5.9533613679087233E-3</v>
       </c>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2">
       <c r="B578">
         <v>-8.7723288286926434E-3</v>
       </c>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2">
       <c r="B579">
         <v>-9.0217603927665313E-3</v>
       </c>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2">
       <c r="B580">
         <v>-7.0367797924402644E-3</v>
       </c>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2">
       <c r="B581">
         <v>6.3858250526236263E-3</v>
       </c>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2">
       <c r="B582">
         <v>-6.4085355291424659E-3</v>
       </c>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2">
       <c r="B583">
         <v>1.9197915993870442E-4</v>
       </c>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2">
       <c r="B584">
         <v>6.3131402514570766E-3</v>
       </c>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2">
       <c r="B585">
         <v>2.6585809037032154E-3</v>
       </c>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2">
       <c r="B586">
         <v>-3.871016407876275E-3</v>
       </c>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2">
       <c r="B587">
         <v>-1.3166944154507339E-2</v>
       </c>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2">
       <c r="B588">
         <v>-1.2948641461246468E-2</v>
       </c>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2">
       <c r="B589">
         <v>-3.048536479106564E-3</v>
       </c>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2">
       <c r="B590">
         <v>1.3646542003788781E-2</v>
       </c>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2">
       <c r="B591">
         <v>-8.2303882518415365E-4</v>
       </c>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2">
       <c r="B592">
         <v>-3.9889110002233712E-3</v>
       </c>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2">
       <c r="B593">
         <v>4.1892431664101509E-3</v>
       </c>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2">
       <c r="B594">
         <v>9.7951588165536441E-3</v>
       </c>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2">
       <c r="B595">
         <v>8.0614791967223501E-3</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2">
       <c r="B596">
         <v>1.0480169216959333E-3</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2">
       <c r="B597">
         <v>-5.0720385701012597E-3</v>
       </c>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2">
       <c r="B598">
         <v>4.7491179765744278E-3</v>
       </c>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2">
       <c r="B599">
         <v>-2.6726884442161361E-4</v>
       </c>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2">
       <c r="B600">
         <v>-3.7741275635755135E-3</v>
       </c>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2">
       <c r="B601">
         <v>6.5676856418626977E-3</v>
       </c>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2">
       <c r="B602">
         <v>-2.2712237465854863E-3</v>
       </c>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2">
       <c r="B603">
         <v>2.1765728374437752E-3</v>
       </c>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2">
       <c r="B604">
         <v>-4.0358112533751839E-3</v>
       </c>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2">
       <c r="B605">
         <v>-1.2561961889475239E-3</v>
       </c>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2">
       <c r="B606">
         <v>-9.2494416764338991E-3</v>
       </c>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2">
       <c r="B607">
         <v>1.3839781859810227E-2</v>
       </c>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2">
       <c r="B608">
         <v>-9.7641385417059148E-3</v>
       </c>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2">
       <c r="B609">
         <v>4.6679531548356511E-3</v>
       </c>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2">
       <c r="B610">
         <v>7.1408929174877969E-3</v>
       </c>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2">
       <c r="B611">
         <v>-2.5754028200119477E-3</v>
       </c>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2">
       <c r="B612">
         <v>9.7459254918959744E-3</v>
       </c>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2">
       <c r="B613">
         <v>1.1013378782609882E-2</v>
       </c>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2">
       <c r="B614">
         <v>5.8053106852283274E-3</v>
       </c>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2">
       <c r="B615">
         <v>-1.4360131376860738E-3</v>
       </c>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2">
       <c r="B616">
         <v>-1.3027534818901324E-3</v>
       </c>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2">
       <c r="B617">
         <v>-4.1678492905384825E-3</v>
       </c>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2">
       <c r="B618">
         <v>-8.0367662845589965E-5</v>
       </c>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2">
       <c r="B619">
         <v>1.7396141065276658E-3</v>
       </c>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2">
       <c r="B620">
         <v>-7.6799609946390521E-3</v>
       </c>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2">
       <c r="B621">
         <v>-3.5908661620085412E-4</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2">
       <c r="B622">
         <v>-1.8653060944802391E-3</v>
       </c>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2">
       <c r="B623">
         <v>-3.9786196622958875E-3</v>
       </c>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2">
       <c r="B624">
         <v>1.1241772725713143E-2</v>
       </c>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2">
       <c r="B625">
         <v>-8.1386187108806879E-3</v>
       </c>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2">
       <c r="B626">
         <v>1.1772589092420844E-3</v>
       </c>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2">
       <c r="B627">
         <v>-4.0384597996767184E-3</v>
       </c>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2">
       <c r="B628">
         <v>5.9304167482269049E-3</v>
       </c>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2">
       <c r="B629">
         <v>4.6518847792820367E-3</v>
       </c>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2">
       <c r="B630">
         <v>-7.4486193509819677E-4</v>
       </c>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2">
       <c r="B631">
         <v>-3.1930504581352027E-3</v>
       </c>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2">
       <c r="B632">
         <v>9.030442742413311E-3</v>
       </c>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2">
       <c r="B633">
         <v>2.9762102155917319E-3</v>
       </c>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2">
       <c r="B634">
         <v>5.2599328184009721E-3</v>
       </c>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2">
       <c r="B635">
         <v>8.5886057909843588E-3</v>
       </c>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2">
       <c r="B636">
         <v>-4.858981976051233E-3</v>
       </c>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2">
       <c r="B637">
         <v>6.0723841064409916E-3</v>
       </c>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2">
       <c r="B638">
         <v>4.5653068284194223E-3</v>
       </c>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2">
       <c r="B639">
         <v>-1.5601892089277892E-3</v>
       </c>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2">
       <c r="B640">
         <v>5.0623601858142096E-3</v>
       </c>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2">
       <c r="B641">
         <v>1.1540007743439512E-3</v>
       </c>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2">
       <c r="B642">
         <v>-4.1437154953131924E-3</v>
       </c>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2">
       <c r="B643">
         <v>5.7293365918500018E-4</v>
       </c>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2">
       <c r="B644">
         <v>-2.7646913803140083E-3</v>
       </c>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2">
       <c r="B645">
         <v>9.2983558073188761E-3</v>
       </c>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2">
       <c r="B646">
         <v>7.4957357529232514E-3</v>
       </c>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2">
       <c r="B647">
         <v>3.5676701475839288E-3</v>
       </c>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2">
       <c r="B648">
         <v>-3.0523133260521983E-4</v>
       </c>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2">
       <c r="B649">
         <v>-3.4399949648106446E-3</v>
       </c>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2">
       <c r="B650">
         <v>5.9012772447407389E-3</v>
       </c>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2">
       <c r="B651">
         <v>3.2280681591314309E-3</v>
       </c>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2">
       <c r="B652">
         <v>2.4960486332707872E-3</v>
       </c>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2">
       <c r="B653">
         <v>7.8383106992689494E-3</v>
       </c>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2">
       <c r="B654">
         <v>4.7471884499171967E-3</v>
       </c>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2">
       <c r="B655">
         <v>1.7955946819268528E-3</v>
       </c>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2">
       <c r="B656">
         <v>-5.0136089320741662E-5</v>
       </c>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2">
       <c r="B657">
         <v>-1.2809579765078109E-3</v>
       </c>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2">
       <c r="B658">
         <v>-4.1185058770872402E-3</v>
       </c>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2">
       <c r="B659">
         <v>-3.6023496763932569E-3</v>
       </c>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2">
       <c r="B660">
         <v>4.3107694274210073E-3</v>
       </c>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2">
       <c r="B661">
         <v>-2.7016505891714038E-3</v>
       </c>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2">
       <c r="B662">
         <v>1.536115288756814E-2</v>
       </c>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2">
       <c r="B663">
         <v>5.8599296182156131E-3</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2">
       <c r="B664">
         <v>-7.9710342050318161E-4</v>
       </c>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2">
       <c r="B665">
         <v>1.7556404646042049E-4</v>
       </c>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2">
       <c r="B666">
         <v>-1.1215129882041191E-3</v>
       </c>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2">
       <c r="B667">
         <v>-1.5161299633382872E-4</v>
       </c>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2">
       <c r="B668">
         <v>3.7961266975488689E-3</v>
       </c>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2">
       <c r="B669">
         <v>2.5807443155088476E-3</v>
       </c>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2">
       <c r="B670">
         <v>1.774787532838348E-3</v>
       </c>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2">
       <c r="B671">
         <v>2.2120305049448453E-3</v>
       </c>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2">
       <c r="B672">
         <v>-2.052121298254998E-3</v>
       </c>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2">
       <c r="B673">
         <v>1.8276544012485029E-5</v>
       </c>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2">
       <c r="B674">
         <v>-7.4165026577268755E-4</v>
       </c>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2">
       <c r="B675">
         <v>-2.9996466400777532E-5</v>
       </c>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2">
       <c r="B676">
         <v>-2.1668972296314368E-3</v>
       </c>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2">
       <c r="B677">
         <v>-4.3273855636165141E-4</v>
       </c>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2">
       <c r="B678">
         <v>3.0207865402247652E-3</v>
       </c>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2">
       <c r="B679">
         <v>6.3168455762835996E-3</v>
       </c>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2">
       <c r="B680">
         <v>1.236808543268782E-3</v>
       </c>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2">
       <c r="B681">
         <v>4.286589275275682E-3</v>
       </c>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2">
       <c r="B682">
         <v>-6.7503756977828539E-4</v>
       </c>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2">
       <c r="B683">
         <v>-1.7347174499351356E-3</v>
       </c>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2">
       <c r="B684">
         <v>3.1624356143239072E-3</v>
       </c>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2">
       <c r="B685">
         <v>-8.3132848462382902E-5</v>
       </c>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2">
       <c r="B686">
         <v>9.4295909977550694E-3</v>
       </c>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2">
       <c r="B687">
         <v>2.3956639969137509E-3</v>
       </c>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2">
       <c r="B688">
         <v>-2.9620965804986071E-3</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2">
       <c r="B689">
         <v>-1.6055970074510533E-3</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2">
       <c r="B690">
         <v>-1.5878221574071455E-3</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2">
       <c r="B691">
         <v>4.5040932083109872E-3</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2">
       <c r="B692">
         <v>1.0029874478992076E-4</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2">
       <c r="A693" t="s">
         <v>1</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>0.1593411119020284</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2">
       <c r="A694" t="s">
         <v>2</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>9.9741273822250412E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2">
       <c r="A695" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3918,7 +3919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
